--- a/Doc/Modele.xlsx
+++ b/Doc/Modele.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\OneDrive\Bureau\Moi\Efrei\Imbartabac\Programme\Assistanat_Project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB00BB43-FC26-4E5D-92B0-11E6DB47D438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EE3B55-6B56-4966-8FA8-3E3F758064BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3964678-B18F-4EFC-A942-A89CB15AA928}"/>
   </bookViews>
   <sheets>
     <sheet name="Modèle" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="xcir0" hidden="1">-3.1415926536+(ROW(OFFSET(#REF!,0,0,500,1))-1)*0.0125915537</definedName>
     <definedName name="xdata1" hidden="1">-2782.6483723077+(ROW(OFFSET(#REF!,0,0,70,1))-1)*89.9736513266</definedName>
@@ -1149,62 +1146,62 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,28 +1218,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Récapitulatif"/>
-      <sheetName val="Analyse Sensorielle"/>
-      <sheetName val="Mesures Instrumentales"/>
-      <sheetName val="Statistiques"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1545,486 +1520,365 @@
   <sheetPr codeName="Feuil2">
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AN16"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="69"/>
-      <c r="B1" s="68" t="s">
+    <row r="1" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="51"/>
+      <c r="B2" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="65" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="62" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="60"/>
-    </row>
-    <row r="2" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59"/>
-      <c r="B2" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="50"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="66"/>
     </row>
     <row r="3" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
-      <c r="B3" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="X3" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z3" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB3" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC3" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD3" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE3" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF3" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG3" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH3" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM3" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN3" s="42" t="s">
-        <v>14</v>
-      </c>
+      <c r="A3" s="50"/>
+      <c r="B3" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="69"/>
     </row>
     <row r="4" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="T4" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="20" t="s">
-        <v>0</v>
+      <c r="A4" s="49"/>
+      <c r="B4" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF4" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG4" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH4" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI4" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ4" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK4" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL4" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="42" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="X5" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="32" t="s">
         <v>0</v>
       </c>
       <c r="AN5" s="20" t="s">
@@ -2033,7 +1887,7 @@
     </row>
     <row r="6" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>0</v>
@@ -2155,7 +2009,7 @@
     </row>
     <row r="7" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>0</v>
@@ -2163,7 +2017,7 @@
       <c r="C7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="23" t="s">
@@ -2181,19 +2035,19 @@
       <c r="I7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="27" t="s">
+      <c r="J7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="O7" s="15" t="s">
@@ -2202,7 +2056,7 @@
       <c r="P7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R7" s="23" t="s">
@@ -2220,19 +2074,19 @@
       <c r="V7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="W7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="X7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="27" t="s">
+      <c r="W7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="AB7" s="15" t="s">
@@ -2241,7 +2095,7 @@
       <c r="AC7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD7" s="30" t="s">
+      <c r="AD7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="AE7" s="22" t="s">
@@ -2259,25 +2113,25 @@
       <c r="AI7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AJ7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="27" t="s">
+      <c r="AJ7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>0</v>
@@ -2285,10 +2139,10 @@
       <c r="C8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="14" t="s">
@@ -2303,19 +2157,19 @@
       <c r="I8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11" t="s">
+      <c r="J8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="O8" s="15" t="s">
@@ -2324,10 +2178,10 @@
       <c r="P8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="Q8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="19" t="s">
+      <c r="Q8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="23" t="s">
         <v>0</v>
       </c>
       <c r="S8" s="12" t="s">
@@ -2342,19 +2196,19 @@
       <c r="V8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="W8" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="11" t="s">
+      <c r="W8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="27" t="s">
         <v>0</v>
       </c>
       <c r="AB8" s="15" t="s">
@@ -2363,10 +2217,10 @@
       <c r="AC8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="18" t="s">
+      <c r="AD8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="22" t="s">
         <v>0</v>
       </c>
       <c r="AF8" s="17" t="s">
@@ -2381,25 +2235,25 @@
       <c r="AI8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AJ8" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="11" t="s">
+      <c r="AJ8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>0</v>
@@ -2407,10 +2261,10 @@
       <c r="C9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -2425,7 +2279,7 @@
       <c r="I9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="26" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="13" t="s">
@@ -2437,7 +2291,7 @@
       <c r="M9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="11" t="s">
         <v>0</v>
       </c>
       <c r="O9" s="15" t="s">
@@ -2446,10 +2300,10 @@
       <c r="P9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="23" t="s">
+      <c r="Q9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="S9" s="12" t="s">
@@ -2464,7 +2318,7 @@
       <c r="V9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="W9" s="21" t="s">
+      <c r="W9" s="26" t="s">
         <v>0</v>
       </c>
       <c r="X9" s="13" t="s">
@@ -2476,7 +2330,7 @@
       <c r="Z9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AA9" s="20" t="s">
+      <c r="AA9" s="11" t="s">
         <v>0</v>
       </c>
       <c r="AB9" s="15" t="s">
@@ -2485,10 +2339,10 @@
       <c r="AC9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="22" t="s">
+      <c r="AD9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="18" t="s">
         <v>0</v>
       </c>
       <c r="AF9" s="17" t="s">
@@ -2503,7 +2357,7 @@
       <c r="AI9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AJ9" s="21" t="s">
+      <c r="AJ9" s="26" t="s">
         <v>0</v>
       </c>
       <c r="AK9" s="13" t="s">
@@ -2515,13 +2369,13 @@
       <c r="AM9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AN9" s="20" t="s">
+      <c r="AN9" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>0</v>
@@ -2529,7 +2383,7 @@
       <c r="C10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="23" t="s">
@@ -2568,7 +2422,7 @@
       <c r="P10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="Q10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="R10" s="23" t="s">
@@ -2607,7 +2461,7 @@
       <c r="AC10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD10" s="14" t="s">
+      <c r="AD10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="AE10" s="22" t="s">
@@ -2643,7 +2497,7 @@
     </row>
     <row r="11" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>0</v>
@@ -2651,7 +2505,7 @@
       <c r="C11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="23" t="s">
@@ -2669,7 +2523,7 @@
       <c r="I11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="21" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
@@ -2690,7 +2544,7 @@
       <c r="P11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="14" t="s">
         <v>0</v>
       </c>
       <c r="R11" s="23" t="s">
@@ -2708,7 +2562,7 @@
       <c r="V11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="W11" s="14" t="s">
+      <c r="W11" s="21" t="s">
         <v>0</v>
       </c>
       <c r="X11" s="13" t="s">
@@ -2729,7 +2583,7 @@
       <c r="AC11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD11" s="21" t="s">
+      <c r="AD11" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AE11" s="22" t="s">
@@ -2747,7 +2601,7 @@
       <c r="AI11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AJ11" s="14" t="s">
+      <c r="AJ11" s="21" t="s">
         <v>0</v>
       </c>
       <c r="AK11" s="13" t="s">
@@ -2765,7 +2619,7 @@
     </row>
     <row r="12" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>0</v>
@@ -2779,7 +2633,7 @@
       <c r="E12" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="14" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="19" t="s">
@@ -2791,7 +2645,7 @@
       <c r="I12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="14" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="13" t="s">
@@ -2818,7 +2672,7 @@
       <c r="R12" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="12" t="s">
         <v>0</v>
       </c>
       <c r="T12" s="11" t="s">
@@ -2830,7 +2684,7 @@
       <c r="V12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="W12" s="21" t="s">
+      <c r="W12" s="14" t="s">
         <v>0</v>
       </c>
       <c r="X12" s="13" t="s">
@@ -2857,7 +2711,7 @@
       <c r="AE12" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AF12" s="24" t="s">
+      <c r="AF12" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AG12" s="11" t="s">
@@ -2869,7 +2723,7 @@
       <c r="AI12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AJ12" s="21" t="s">
+      <c r="AJ12" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AK12" s="13" t="s">
@@ -2887,7 +2741,7 @@
     </row>
     <row r="13" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>0</v>
@@ -2901,10 +2755,10 @@
       <c r="E13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23" t="s">
+      <c r="F13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="14" t="s">
@@ -2940,10 +2794,10 @@
       <c r="R13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="S13" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="20" t="s">
+      <c r="S13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11" t="s">
         <v>0</v>
       </c>
       <c r="U13" s="16" t="s">
@@ -2979,10 +2833,10 @@
       <c r="AE13" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AF13" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="20" t="s">
+      <c r="AF13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="11" t="s">
         <v>0</v>
       </c>
       <c r="AH13" s="16" t="s">
@@ -3009,7 +2863,7 @@
     </row>
     <row r="14" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>0</v>
@@ -3017,16 +2871,16 @@
       <c r="C14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="23" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="14" t="s">
@@ -3035,7 +2889,7 @@
       <c r="I14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="21" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="13" t="s">
@@ -3047,7 +2901,7 @@
       <c r="M14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="20" t="s">
         <v>0</v>
       </c>
       <c r="O14" s="15" t="s">
@@ -3056,16 +2910,16 @@
       <c r="P14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="Q14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="19" t="s">
+      <c r="Q14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="23" t="s">
         <v>0</v>
       </c>
       <c r="S14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="20" t="s">
         <v>0</v>
       </c>
       <c r="U14" s="16" t="s">
@@ -3074,7 +2928,7 @@
       <c r="V14" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="W14" s="14" t="s">
+      <c r="W14" s="21" t="s">
         <v>0</v>
       </c>
       <c r="X14" s="13" t="s">
@@ -3086,7 +2940,7 @@
       <c r="Z14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AA14" s="11" t="s">
+      <c r="AA14" s="20" t="s">
         <v>0</v>
       </c>
       <c r="AB14" s="15" t="s">
@@ -3095,16 +2949,16 @@
       <c r="AC14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AD14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="18" t="s">
+      <c r="AD14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="22" t="s">
         <v>0</v>
       </c>
       <c r="AF14" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AG14" s="11" t="s">
+      <c r="AG14" s="20" t="s">
         <v>0</v>
       </c>
       <c r="AH14" s="16" t="s">
@@ -3113,7 +2967,7 @@
       <c r="AI14" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AJ14" s="14" t="s">
+      <c r="AJ14" s="21" t="s">
         <v>0</v>
       </c>
       <c r="AK14" s="13" t="s">
@@ -3125,13 +2979,13 @@
       <c r="AM14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AN14" s="11" t="s">
+      <c r="AN14" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>0</v>
@@ -3253,143 +3107,265 @@
     </row>
     <row r="16" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="1" t="s">
+      <c r="B17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="O1:AA1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="AB1:AN1"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AB2:AN2"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AN3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O2:AA2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3597,20 +3573,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d5d172b-4dee-49bd-8f24-8c12708964c5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d5d172b-4dee-49bd-8f24-8c12708964c5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3633,14 +3609,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E4DF4A3-415D-4EA6-A209-EA5F8563F134}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45E7E86A-3403-433A-88B9-A395BD28AEC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="4f996f7a-6705-4ade-b9fb-079c30d8ffc1"/>
@@ -3655,4 +3623,12 @@
     <ds:schemaRef ds:uri="6d5d172b-4dee-49bd-8f24-8c12708964c5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E4DF4A3-415D-4EA6-A209-EA5F8563F134}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>